--- a/uso_internet_espana.xlsx
+++ b/uso_internet_espana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sota/Dropbox/02 Company/Sotastica/Productos/Coaching/Logistica/Materiales/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C27D51-7121-CD48-B93E-99AFFABF5607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62A318C-DFF9-674F-8DCE-F662AF87B912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{B06D650F-B25A-D045-8A2B-E2EA12ADA4F8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{A74590CB-F3C7-2548-A0C4-4AD308A7FCA7}" name="uso_internet_espana" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/sota/Dropbox/02 Company/Sotastica/Productos/Coaching/Logistica/Discipulos/cristinaalonsoseco/Clases Particulares Python, R/Programa Sotastico/#01. Tablas, Graficas &amp; Conceptos Basicos de Programacion/Notebooks/data/uso_internet_espana.csv" decimal="," thousands="." tab="0" comma="1">
+    <textPr sourceFile="/Users/sota/Dropbox/02 Company/Sotastica/Productos/Coaching/Logistica/Discipulos/cristinaalonsoseco/Clases Particulares Python, R/Programa Sotastico/#01. Tablas, Graficas &amp; Conceptos Basicos de Programacion/Notebooks/data/uso_internet_espana.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="17">
   <si>
     <t>uso_internet</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>Secundaria</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>pepa</t>
+  </si>
+  <si>
+    <t>josefa</t>
+  </si>
+  <si>
+    <t>rufino</t>
   </si>
 </sst>
 </file>
@@ -444,14 +459,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6CF6C7E-8D2F-2143-BBAC-C2509AE928E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
